--- a/Excel/PivotMaker2/Default(tbl).pmk2.xlsx
+++ b/Excel/PivotMaker2/Default(tbl).pmk2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22332" windowHeight="8832" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <definedNames>
     <definedName name="Contents">"Contents!$A$1:$E$8"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId19"/>
     <pivotCache cacheId="3" r:id="rId20"/>
@@ -632,22 +632,22 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -656,10 +656,10 @@
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -668,10 +668,10 @@
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -680,10 +680,10 @@
       <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -692,10 +692,10 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -789,7 +789,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -801,7 +801,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000000000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-828E-403A-88A8-AAF93556D72A}"/>
+              <c16:uniqueId val="{00000000-50BB-4CDA-B122-38AF863FD250}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -836,7 +836,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -848,7 +848,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-828E-403A-88A8-AAF93556D72A}"/>
+              <c16:uniqueId val="{00000001-50BB-4CDA-B122-38AF863FD250}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -869,11 +869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="392034760"/>
-        <c:axId val="392035416"/>
+        <c:axId val="227609768"/>
+        <c:axId val="227612720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392034760"/>
+        <c:axId val="227609768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392035416"/>
+        <c:crossAx val="227612720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392035416"/>
+        <c:axId val="227612720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392034760"/>
+        <c:crossAx val="227609768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1324,307 +1324,307 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2500000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1632,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-548E-4910-98A3-43094E6415FA}"/>
+              <c16:uniqueId val="{00000000-B34F-446F-9123-7EF1D87A01ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1971,304 +1971,304 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -2279,7 +2279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-548E-4910-98A3-43094E6415FA}"/>
+              <c16:uniqueId val="{00000001-B34F-446F-9123-7EF1D87A01ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2292,11 +2292,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393254704"/>
-        <c:axId val="393252408"/>
+        <c:axId val="228710600"/>
+        <c:axId val="228718144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393254704"/>
+        <c:axId val="228710600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393252408"/>
+        <c:crossAx val="228718144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2314,7 +2314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393252408"/>
+        <c:axId val="228718144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393254704"/>
+        <c:crossAx val="228710600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,79 +2528,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.20739E-2</c:v>
+                  <c:v>2.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7486900000000002E-2</c:v>
+                  <c:v>3.1800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1602400000000002E-2</c:v>
+                  <c:v>5.8799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10803699999999999</c:v>
+                  <c:v>9.9199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1088493</c:v>
+                  <c:v>0.10059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11343</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8502300000000001E-2</c:v>
+                  <c:v>0.1052</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1486799999999998E-2</c:v>
+                  <c:v>8.1799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6687099999999999E-2</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5124100000000002E-2</c:v>
+                  <c:v>5.62E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8290299999999999E-2</c:v>
+                  <c:v>3.56E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.27415E-2</c:v>
+                  <c:v>3.32E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4604600000000001E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8111200000000001E-2</c:v>
+                  <c:v>1.7399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.57711E-2</c:v>
+                  <c:v>1.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.28477E-2</c:v>
+                  <c:v>9.7999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.10644E-2</c:v>
+                  <c:v>1.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4710999999999996E-3</c:v>
+                  <c:v>8.2000000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5541999999999996E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1450999999999997E-3</c:v>
+                  <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8974000000000001E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8197000000000001E-3</c:v>
+                  <c:v>3.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.9827999999999999E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2035000000000002E-3</c:v>
+                  <c:v>2.2000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1776999999999999E-3</c:v>
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -2611,7 +2611,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CF9-4BC9-B3BD-8587FAC5193D}"/>
+              <c16:uniqueId val="{00000000-CB18-4D4C-8267-584367A69EB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2731,79 +2731,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.23078123414303E-2</c:v>
+                  <c:v>2.30210474657454E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8497950703663701E-2</c:v>
+                  <c:v>3.3087353445977102E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6390340743687298E-2</c:v>
+                  <c:v>6.3682287442221597E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12929350511798901</c:v>
+                  <c:v>0.11848403435810401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.149938327468846</c:v>
+                  <c:v>0.136356555328177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.184661568756883</c:v>
+                  <c:v>0.18482607695921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19393603637328</c:v>
+                  <c:v>0.203939894101696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19506988928029101</c:v>
+                  <c:v>0.19312930381958501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19380139640884</c:v>
+                  <c:v>0.20764392016240199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19450605100767299</c:v>
+                  <c:v>0.19921970581815199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16148574094135601</c:v>
+                  <c:v>0.149390155174876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16240371066478301</c:v>
+                  <c:v>0.163455004178758</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14286622135270699</c:v>
+                  <c:v>0.144180300761105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.119301427633693</c:v>
+                  <c:v>0.113968858667475</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.116909733614924</c:v>
+                  <c:v>0.120495572341048</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10653682539171699</c:v>
+                  <c:v>7.9938506694383404E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10180770846857699</c:v>
+                  <c:v>9.0301492850627496E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5541696802586406E-2</c:v>
+                  <c:v>7.9506213442761903E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8711394668694202E-2</c:v>
+                  <c:v>5.1358705205120501E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6489819315356999E-2</c:v>
+                  <c:v>4.5224645199996097E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5765326912740198E-2</c:v>
+                  <c:v>6.83776197957503E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6982887067958098E-2</c:v>
+                  <c:v>4.1293962609391097E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8379382344289503E-2</c:v>
+                  <c:v>1.7352591606666301E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9259183702415498E-2</c:v>
+                  <c:v>2.79551500278848E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9780968264758002E-2</c:v>
+                  <c:v>3.13578991898983E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -2814,7 +2814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2CF9-4BC9-B3BD-8587FAC5193D}"/>
+              <c16:uniqueId val="{00000001-CB18-4D4C-8267-584367A69EB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2827,11 +2827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395167376"/>
-        <c:axId val="395165736"/>
+        <c:axId val="228715192"/>
+        <c:axId val="228715848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395167376"/>
+        <c:axId val="228715192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395165736"/>
+        <c:crossAx val="228715848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2849,7 +2849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395165736"/>
+        <c:axId val="228715848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395167376"/>
+        <c:crossAx val="228715192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3066,34 +3066,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8576713252457099E-2</c:v>
+                  <c:v>2.04164012779747E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9192097149776799E-2</c:v>
+                  <c:v>4.4874883123611001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4892247965166202E-2</c:v>
+                  <c:v>5.5922613200318501E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2911326781178401E-2</c:v>
+                  <c:v>5.7717158463377598E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.36845063914219E-2</c:v>
+                  <c:v>3.7333484797618798E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3171944785934701E-2</c:v>
+                  <c:v>3.5256923364645303E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1541428098090199E-2</c:v>
+                  <c:v>2.99398062824499E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6645364197534401E-2</c:v>
+                  <c:v>1.5946371510092899E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6836281390172399E-2</c:v>
+                  <c:v>1.4035642479371301E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9539539800955704E-3</c:v>
+                  <c:v>1.6065414571946601E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3104,7 +3104,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-02E2-4D8D-A818-FF502759B194}"/>
+              <c16:uniqueId val="{00000000-40AC-40DF-BD33-C53263B9282D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3176,34 +3176,34 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>0.28724433431876301</c:v>
+                  <c:v>0.31812804906745601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75836853876680299</c:v>
+                  <c:v>0.72226598417068399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84558006377227801</c:v>
+                  <c:v>0.84814305538509205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.817475128206544</c:v>
+                  <c:v>0.81779783736999201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67203777859365699</c:v>
+                  <c:v>0.71199607206952797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51072705050018097</c:v>
+                  <c:v>0.53949075069612196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48707983197113502</c:v>
+                  <c:v>0.426602283339446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25383641749936098</c:v>
+                  <c:v>0.27119560025775802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26074689142975799</c:v>
+                  <c:v>0.29825296765703202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.154227994167667</c:v>
+                  <c:v>0.15375513261373899</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3214,7 +3214,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02E2-4D8D-A818-FF502759B194}"/>
+              <c16:uniqueId val="{00000001-40AC-40DF-BD33-C53263B9282D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3286,31 +3286,31 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="2">
-                  <c:v>0.19250394198139101</c:v>
+                  <c:v>0.204327220279993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21475586635399699</c:v>
+                  <c:v>0.24281503707004601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.206505857905075</c:v>
+                  <c:v>0.22185091015067701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17022586678992199</c:v>
+                  <c:v>0.15355747010079701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12786495541114301</c:v>
+                  <c:v>0.11211267893242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12386474966913</c:v>
+                  <c:v>0.10370045129233001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4663748974689406E-2</c:v>
+                  <c:v>6.0190857075760697E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5418786120852307E-2</c:v>
+                  <c:v>6.1962773249519598E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9226949500614797E-2</c:v>
+                  <c:v>2.5127658026899299E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3321,7 +3321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-02E2-4D8D-A818-FF502759B194}"/>
+              <c16:uniqueId val="{00000002-40AC-40DF-BD33-C53263B9282D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3393,34 +3393,34 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>1.6133245829036202E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8399107299945898E-2</c:v>
+                  <c:v>7.8325022168220806E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4768835827267902E-2</c:v>
+                  <c:v>0.11619211534049299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3233333249559298E-2</c:v>
+                  <c:v>6.6538594735504594E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3019966413032802E-2</c:v>
+                  <c:v>2.0256073754186501E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2534400437051497E-2</c:v>
+                  <c:v>0.11050392946979599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1196060153592001E-2</c:v>
+                  <c:v>1.7967735406089001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6953306092179699E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.76664856851536E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.03563361094195E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3431,7 +3431,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-02E2-4D8D-A818-FF502759B194}"/>
+              <c16:uniqueId val="{00000003-40AC-40DF-BD33-C53263B9282D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3502,35 +3502,32 @@
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>0.24682794273109401</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59868391250275199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68380208164498502</c:v>
+                  <c:v>1.00625841589179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65655591287120196</c:v>
+                  <c:v>0.59868517819905098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54705749322519004</c:v>
+                  <c:v>0.55013044313164305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41075410402761398</c:v>
+                  <c:v>0.16120490209962099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39322900997444699</c:v>
+                  <c:v>0.46271370997522099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20626443281818299</c:v>
+                  <c:v>0.32219385990935601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21088069106985399</c:v>
+                  <c:v>0.27777948634650301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.123104046157568</c:v>
+                  <c:v>0.20482123700892699</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3541,7 +3538,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-02E2-4D8D-A818-FF502759B194}"/>
+              <c16:uniqueId val="{00000004-40AC-40DF-BD33-C53263B9282D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3612,35 +3609,14 @@
               <c:numCache>
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0114479434849998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5987883646520901E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1960917564962197E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8157852921002303E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5136000349239298E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.05522061961572E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.75987777659166E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.55768269926405E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4795345340463692E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3651,7 +3627,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-02E2-4D8D-A818-FF502759B194}"/>
+              <c16:uniqueId val="{00000005-40AC-40DF-BD33-C53263B9282D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3664,11 +3640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395166720"/>
-        <c:axId val="395163112"/>
+        <c:axId val="228718472"/>
+        <c:axId val="228716176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395166720"/>
+        <c:axId val="228718472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,7 +3654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395163112"/>
+        <c:crossAx val="228716176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3686,7 +3662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395163112"/>
+        <c:axId val="228716176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +3673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395166720"/>
+        <c:crossAx val="228718472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3807,7 +3783,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.1242398019393</c:v>
+                  <c:v>22.1412071616936</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3819,7 +3795,7 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-2.7118484</c:v>
+                  <c:v>7.5200000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3827,7 +3803,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E3C-4D9A-ABAA-CA4C876537B7}"/>
+              <c16:uniqueId val="{00000000-996A-4B85-8007-F448AFFEF225}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3854,7 +3830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.1242398019393</c:v>
+                  <c:v>22.1412071616936</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3866,7 +3842,7 @@
                 <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.7118484</c:v>
+                  <c:v>0.92479999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,7 +3850,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E3C-4D9A-ABAA-CA4C876537B7}"/>
+              <c16:uniqueId val="{00000001-996A-4B85-8007-F448AFFEF225}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3887,11 +3863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395163112"/>
-        <c:axId val="395164424"/>
+        <c:axId val="230686560"/>
+        <c:axId val="230688856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395163112"/>
+        <c:axId val="230686560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395164424"/>
+        <c:crossAx val="230688856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3909,7 +3885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395164424"/>
+        <c:axId val="230688856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395163112"/>
+        <c:crossAx val="230686560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4048,22 +4024,22 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>644444.5</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1505640.75</c:v>
+                  <c:v>3004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136222.25</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7979.25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25229.25</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>389.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,7 +4047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C25F-4133-8C44-FE289D6CCCDF}"/>
+              <c16:uniqueId val="{00000000-4927-4774-A72C-D0701D1BBB04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4084,11 +4060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393253720"/>
-        <c:axId val="393254704"/>
+        <c:axId val="230692136"/>
+        <c:axId val="230690824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393253720"/>
+        <c:axId val="230692136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,7 +4074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393254704"/>
+        <c:crossAx val="230690824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4106,7 +4082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393254704"/>
+        <c:axId val="230690824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +4093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="393253720"/>
+        <c:crossAx val="230692136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,34 +4242,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0925425952029201E-2</c:v>
+                  <c:v>2.9348576837088601E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.134042261781986</c:v>
+                  <c:v>0.13094089030844699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.167136423855618</c:v>
+                  <c:v>0.16557479594604099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.165293686252273</c:v>
+                  <c:v>0.169604610903557</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14706517504819799</c:v>
+                  <c:v>0.13566252222233299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10853238349703501</c:v>
+                  <c:v>0.10416818266827001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0244079530757795E-2</c:v>
+                  <c:v>7.2710958114521204E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4031279521744999E-2</c:v>
+                  <c:v>4.3852521652755598E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.54447532574856E-2</c:v>
+                  <c:v>4.6785474931237803E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.98738430417616E-2</c:v>
+                  <c:v>3.3915875207442901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4304,7 +4280,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4149-4248-AEFE-7C1EDB3E4788}"/>
+              <c16:uniqueId val="{00000000-D6F7-4A44-910A-91B155996834}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4317,11 +4293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="399928392"/>
-        <c:axId val="399929376"/>
+        <c:axId val="230689184"/>
+        <c:axId val="230690496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="399928392"/>
+        <c:axId val="230689184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +4307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399929376"/>
+        <c:crossAx val="230690496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4339,7 +4315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399929376"/>
+        <c:axId val="230690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,7 +4326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399928392"/>
+        <c:crossAx val="230689184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4678,7 +4654,7 @@
             <v>Cases</v>
           </cell>
           <cell r="B4">
-            <v>10000000</v>
+            <v>5000</v>
           </cell>
         </row>
         <row r="5">
@@ -4686,7 +4662,7 @@
             <v>Cases Requested</v>
           </cell>
           <cell r="B5">
-            <v>10000000</v>
+            <v>5000</v>
           </cell>
         </row>
         <row r="6">
@@ -4718,7 +4694,7 @@
             <v>Simulation date and time</v>
           </cell>
           <cell r="B9" t="str">
-            <v>2016-02-06 20:05:12.0684</v>
+            <v>2016-05-22 12:04:31.0817</v>
           </cell>
         </row>
         <row r="10">
@@ -4756,24 +4732,24 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.955142013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.503653240739" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C2" sheet="T01_LifeExpectancy" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Total simulated cases" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2500000" maxValue="2500000" count="1">
-        <n v="2500000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="5000" count="1">
+        <n v="5000"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Total duration" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000000000" maxValue="1000000000" count="1">
-        <n v="1000000000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500000" maxValue="500000" count="1">
+        <n v="500000"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Life expectancy" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="400" maxValue="400" count="1">
-        <n v="400"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100" count="1">
+        <n v="100"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -4786,7 +4762,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.955143865744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.503654976848" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C102" sheet="T02_TotalPopulationByYear" r:id="rId2"/>
   </cacheSource>
@@ -4897,13 +4873,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Population start of year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2500000" maxValue="2500000" count="1">
-        <n v="2500000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="5000" count="1">
+        <n v="5000"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Average population in year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10000000" count="2">
-        <n v="10000000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5000" count="2">
+        <n v="5000"/>
         <n v="0"/>
       </sharedItems>
     </cacheField>
@@ -4917,7 +4893,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.955144791667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="27">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.503656134257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="27">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C28" sheet="T03_FertilityByAge" r:id="rId2"/>
   </cacheSource>
@@ -4954,63 +4930,63 @@
       </sharedItems>
     </cacheField>
     <cacheField name="First birth rate all women" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.11343" count="26">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.11600000000000001" count="26">
         <n v="0"/>
-        <n v="2.20739E-2"/>
-        <n v="2.7486900000000002E-2"/>
-        <n v="6.1602400000000002E-2"/>
-        <n v="0.10803699999999999"/>
-        <n v="0.1088493"/>
-        <n v="0.11343"/>
-        <n v="9.8502300000000001E-2"/>
-        <n v="8.1486799999999998E-2"/>
-        <n v="6.6687099999999999E-2"/>
-        <n v="5.5124100000000002E-2"/>
-        <n v="3.8290299999999999E-2"/>
-        <n v="3.27415E-2"/>
-        <n v="2.4604600000000001E-2"/>
-        <n v="1.8111200000000001E-2"/>
-        <n v="1.57711E-2"/>
-        <n v="1.28477E-2"/>
-        <n v="1.10644E-2"/>
-        <n v="7.4710999999999996E-3"/>
-        <n v="4.5541999999999996E-3"/>
-        <n v="4.1450999999999997E-3"/>
-        <n v="3.8974000000000001E-3"/>
-        <n v="3.8197000000000001E-3"/>
-        <n v="2.9827999999999999E-3"/>
-        <n v="2.2035000000000002E-3"/>
-        <n v="2.1776999999999999E-3"/>
+        <n v="2.2800000000000001E-2"/>
+        <n v="3.1800000000000002E-2"/>
+        <n v="5.8799999999999998E-2"/>
+        <n v="9.9199999999999997E-2"/>
+        <n v="0.10059999999999999"/>
+        <n v="0.11600000000000001"/>
+        <n v="0.1052"/>
+        <n v="8.1799999999999998E-2"/>
+        <n v="7.1999999999999995E-2"/>
+        <n v="5.62E-2"/>
+        <n v="3.56E-2"/>
+        <n v="3.32E-2"/>
+        <n v="2.5000000000000001E-2"/>
+        <n v="1.7399999999999999E-2"/>
+        <n v="1.6400000000000001E-2"/>
+        <n v="9.7999999999999997E-3"/>
+        <n v="1.0200000000000001E-2"/>
+        <n v="8.2000000000000007E-3"/>
+        <n v="5.0000000000000001E-3"/>
+        <n v="4.1999999999999997E-3"/>
+        <n v="6.0000000000000001E-3"/>
+        <n v="3.3999999999999998E-3"/>
+        <n v="1.4E-3"/>
+        <n v="2.2000000000000001E-3"/>
+        <n v="2.3999999999999998E-3"/>
       </sharedItems>
     </cacheField>
     <cacheField name="First birth rate woman at risk" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.19506988928029101" count="26">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.20764392016240199" count="26">
         <n v="0"/>
-        <n v="2.23078123414303E-2"/>
-        <n v="2.8497950703663701E-2"/>
-        <n v="6.6390340743687298E-2"/>
-        <n v="0.12929350511798901"/>
-        <n v="0.149938327468846"/>
-        <n v="0.184661568756883"/>
-        <n v="0.19393603637328"/>
-        <n v="0.19506988928029101"/>
-        <n v="0.19380139640884"/>
-        <n v="0.19450605100767299"/>
-        <n v="0.16148574094135601"/>
-        <n v="0.16240371066478301"/>
-        <n v="0.14286622135270699"/>
-        <n v="0.119301427633693"/>
-        <n v="0.116909733614924"/>
-        <n v="0.10653682539171699"/>
-        <n v="0.10180770846857699"/>
-        <n v="7.5541696802586406E-2"/>
-        <n v="4.8711394668694202E-2"/>
-        <n v="4.6489819315356999E-2"/>
-        <n v="4.5765326912740198E-2"/>
-        <n v="4.6982887067958098E-2"/>
-        <n v="3.8379382344289503E-2"/>
-        <n v="2.9259183702415498E-2"/>
-        <n v="2.9780968264758002E-2"/>
+        <n v="2.30210474657454E-2"/>
+        <n v="3.3087353445977102E-2"/>
+        <n v="6.3682287442221597E-2"/>
+        <n v="0.11848403435810401"/>
+        <n v="0.136356555328177"/>
+        <n v="0.18482607695921"/>
+        <n v="0.203939894101696"/>
+        <n v="0.19312930381958501"/>
+        <n v="0.20764392016240199"/>
+        <n v="0.19921970581815199"/>
+        <n v="0.149390155174876"/>
+        <n v="0.163455004178758"/>
+        <n v="0.144180300761105"/>
+        <n v="0.113968858667475"/>
+        <n v="0.120495572341048"/>
+        <n v="7.9938506694383404E-2"/>
+        <n v="9.0301492850627496E-2"/>
+        <n v="7.9506213442761903E-2"/>
+        <n v="5.1358705205120501E-2"/>
+        <n v="4.5224645199996097E-2"/>
+        <n v="6.83776197957503E-2"/>
+        <n v="4.1293962609391097E-2"/>
+        <n v="1.7352591606666301E-2"/>
+        <n v="2.79551500278848E-2"/>
+        <n v="3.13578991898983E-2"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -5023,7 +4999,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.955145486114" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.503656944442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C73" sheet="T04_FertilityRatesByAgeGroup" r:id="rId2"/>
   </cacheSource>
@@ -5055,7 +5031,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Fertility" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.84558006377227801"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1.00625841589179"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5067,24 +5043,24 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.955146064814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.503657638888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C2" sheet="T05_CohortFertility" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Av. age at 1st pregnancy" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="22.1242398019393" maxValue="22.1242398019393" count="1">
-        <n v="22.1242398019393"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="22.1412071616936" maxValue="22.1412071616936" count="1">
+        <n v="22.1412071616936"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Childlessness" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.7118484" maxValue="-2.7118484" count="1">
-        <n v="-2.7118484"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5200000000000003E-2" maxValue="7.5200000000000003E-2" count="1">
+        <n v="7.5200000000000003E-2"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Percent one child" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.7118484" maxValue="3.7118484" count="1">
-        <n v="3.7118484"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.92479999999999996" maxValue="0.92479999999999996" count="1">
+        <n v="0.92479999999999996"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -5097,7 +5073,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.955146759261" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.503658333335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B7" sheet="T06_BirthsByUnion" r:id="rId2"/>
   </cacheSource>
@@ -5113,13 +5089,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Number of pregnancies" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="389.25" maxValue="1505640.75" count="6">
-        <n v="644444.5"/>
-        <n v="1505640.75"/>
-        <n v="136222.25"/>
-        <n v="7979.25"/>
-        <n v="25229.25"/>
-        <n v="389.25"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3004" count="6">
+        <n v="1300"/>
+        <n v="3004"/>
+        <n v="261"/>
+        <n v="18"/>
+        <n v="41"/>
+        <n v="0"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -5132,7 +5108,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42406.9551474537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steve Gribble" refreshedDate="42512.50365914352" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B13" sheet="T07_FirstUnionFormation" r:id="rId2"/>
   </cacheSource>
@@ -5154,18 +5130,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="First union formation risk" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.167136423855618" count="11">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.169604610903557" count="11">
         <n v="0"/>
-        <n v="3.0925425952029201E-2"/>
-        <n v="0.134042261781986"/>
-        <n v="0.167136423855618"/>
-        <n v="0.165293686252273"/>
-        <n v="0.14706517504819799"/>
-        <n v="0.10853238349703501"/>
-        <n v="8.0244079530757795E-2"/>
-        <n v="3.4031279521744999E-2"/>
-        <n v="4.54447532574856E-2"/>
-        <n v="3.98738430417616E-2"/>
+        <n v="2.9348576837088601E-2"/>
+        <n v="0.13094089030844699"/>
+        <n v="0.16557479594604099"/>
+        <n v="0.169604610903557"/>
+        <n v="0.13566252222233299"/>
+        <n v="0.10416818266827001"/>
+        <n v="7.2710958114521204E-2"/>
+        <n v="4.3852521652755598E-2"/>
+        <n v="4.6785474931237803E-2"/>
+        <n v="3.3915875207442901E-2"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -5872,12 +5848,12 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1.8576713252457099E-2"/>
+    <n v="2.04164012779747E-2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="0.28724433431876301"/>
+    <n v="0.31812804906745601"/>
   </r>
   <r>
     <x v="1"/>
@@ -5887,287 +5863,287 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="1.6133245829036202E-2"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="0.24682794273109401"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="0"/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="4.9192097149776799E-2"/>
+    <n v="4.4874883123611001E-2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="0.75836853876680299"/>
+    <n v="0.72226598417068399"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="0.19250394198139101"/>
+    <n v="0.204327220279993"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="4.8399107299945898E-2"/>
+    <n v="7.8325022168220806E-2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
-    <n v="0.59868391250275199"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="4.0114479434849998E-2"/>
+    <m/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="5.4892247965166202E-2"/>
+    <n v="5.5922613200318501E-2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="0.84558006377227801"/>
+    <n v="0.84814305538509205"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
-    <n v="0.21475586635399699"/>
+    <n v="0.24281503707004601"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="5.4768835827267902E-2"/>
+    <n v="0.11619211534049299"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="0.68380208164498502"/>
+    <n v="1.00625841589179"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="5.5987883646520901E-2"/>
+    <m/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="5.2911326781178401E-2"/>
+    <n v="5.7717158463377598E-2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="0.817475128206544"/>
+    <n v="0.81779783736999201"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="0.206505857905075"/>
+    <n v="0.22185091015067701"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="5.3233333249559298E-2"/>
+    <n v="6.6538594735504594E-2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="0.65655591287120196"/>
+    <n v="0.59868517819905098"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
-    <n v="5.1960917564962197E-2"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <n v="4.36845063914219E-2"/>
+    <n v="3.7333484797618798E-2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="0.67203777859365699"/>
+    <n v="0.71199607206952797"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
-    <n v="0.17022586678992199"/>
+    <n v="0.15355747010079701"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
-    <n v="4.3019966413032802E-2"/>
+    <n v="2.0256073754186501E-2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
-    <n v="0.54705749322519004"/>
+    <n v="0.55013044313164305"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
-    <n v="4.8157852921002303E-2"/>
+    <m/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
-    <n v="3.3171944785934701E-2"/>
+    <n v="3.5256923364645303E-2"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <n v="0.51072705050018097"/>
+    <n v="0.53949075069612196"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
-    <n v="0.12786495541114301"/>
+    <n v="0.11211267893242"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
-    <n v="3.2534400437051497E-2"/>
+    <n v="0.11050392946979599"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
-    <n v="0.41075410402761398"/>
+    <n v="0.16120490209962099"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
-    <n v="3.5136000349239298E-2"/>
+    <m/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <n v="3.1541428098090199E-2"/>
+    <n v="2.99398062824499E-2"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
-    <n v="0.48707983197113502"/>
+    <n v="0.426602283339446"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
-    <n v="0.12386474966913"/>
+    <n v="0.10370045129233001"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
-    <n v="3.1196060153592001E-2"/>
+    <n v="1.7967735406089001E-2"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
-    <n v="0.39322900997444699"/>
+    <n v="0.46271370997522099"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
-    <n v="3.05522061961572E-2"/>
+    <m/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
-    <n v="1.6645364197534401E-2"/>
+    <n v="1.5946371510092899E-2"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
-    <n v="0.25383641749936098"/>
+    <n v="0.27119560025775802"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
-    <n v="6.4663748974689406E-2"/>
+    <n v="6.0190857075760697E-2"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
-    <n v="1.6953306092179699E-2"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
-    <n v="0.20626443281818299"/>
+    <n v="0.32219385990935601"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
-    <n v="1.75987777659166E-2"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
-    <n v="1.6836281390172399E-2"/>
+    <n v="1.4035642479371301E-2"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <n v="0.26074689142975799"/>
+    <n v="0.29825296765703202"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
-    <n v="6.5418786120852307E-2"/>
+    <n v="6.1962773249519598E-2"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
-    <n v="1.76664856851536E-2"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
-    <n v="0.21088069106985399"/>
+    <n v="0.27777948634650301"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
-    <n v="1.55768269926405E-2"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
-    <n v="9.9539539800955704E-3"/>
+    <n v="1.6065414571946601E-2"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
-    <n v="0.154227994167667"/>
+    <n v="0.15375513261373899"/>
   </r>
   <r>
     <x v="10"/>
     <x v="2"/>
-    <n v="3.9226949500614797E-2"/>
+    <n v="2.5127658026899299E-2"/>
   </r>
   <r>
     <x v="10"/>
     <x v="3"/>
-    <n v="1.03563361094195E-2"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="10"/>
     <x v="4"/>
-    <n v="0.123104046157568"/>
+    <n v="0.20482123700892699"/>
   </r>
   <r>
     <x v="10"/>
     <x v="5"/>
-    <n v="9.4795345340463692E-3"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="11"/>
@@ -7589,6 +7565,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7624,6 +7617,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7778,8 +7788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7815,7 +7825,7 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>Info!B9</f>
-        <v>2016-02-06 20:05:12.0684</v>
+        <v>2016-05-22 12:04:31.0817</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -7977,20 +7987,20 @@
     <sortCondition ref="C2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A8" location="T01_LifeExpectancy!R1C1" display="T01_LifeExpectancy!R1C1"/>
-    <hyperlink ref="B8" location="C_T01_LifeExpectancy!R1C1" display="C_T01_LifeExpectancy!R1C1"/>
-    <hyperlink ref="A9" location="T02_TotalPopulationByYear!R1C1" display="T02_TotalPopulationByYear!R1C1"/>
-    <hyperlink ref="B9" location="C_T02_TotalPopulationByYear!R1C1" display="C_T02_TotalPopulationByYear!R1C1"/>
-    <hyperlink ref="A10" location="T03_FertilityByAge!R1C1" display="T03_FertilityByAge!R1C1"/>
-    <hyperlink ref="B10" location="C_T03_FertilityByAge!R1C1" display="C_T03_FertilityByAge!R1C1"/>
-    <hyperlink ref="A11" location="T04_FertilityRatesByAgeGroup!R1C1" display="T04_FertilityRatesByAgeGroup!R1C1"/>
-    <hyperlink ref="B11" location="C_Chart4!R1C1" display="C_Chart4!R1C1"/>
-    <hyperlink ref="A12" location="T05_CohortFertility!R1C1" display="T05_CohortFertility!R1C1"/>
-    <hyperlink ref="B12" location="C_T05_CohortFertility!R1C1" display="C_T05_CohortFertility!R1C1"/>
-    <hyperlink ref="A13" location="T06_BirthsByUnion!R1C1" display="T06_BirthsByUnion!R1C1"/>
-    <hyperlink ref="B13" location="C_T06_BirthsByUnion!R1C1" display="C_T06_BirthsByUnion!R1C1"/>
-    <hyperlink ref="A14" location="T07_FirstUnionFormation!R1C1" display="T07_FirstUnionFormation!R1C1"/>
-    <hyperlink ref="B14" location="C_T07_FirstUnionFormation!R1C1" display="C_T07_FirstUnionFormation!R1C1"/>
+    <hyperlink ref="A8" location="'T01_LifeExpectancy'!R1C1" display="'T01_LifeExpectancy'!R1C1"/>
+    <hyperlink ref="B8" location="'C_T01_LifeExpectancy'!R1C1" display="'C_T01_LifeExpectancy'!R1C1"/>
+    <hyperlink ref="A9" location="'T02_TotalPopulationByYear'!R1C1" display="'T02_TotalPopulationByYear'!R1C1"/>
+    <hyperlink ref="B9" location="'C_T02_TotalPopulationByYear'!R1C1" display="'C_T02_TotalPopulationByYear'!R1C1"/>
+    <hyperlink ref="A10" location="'T03_FertilityByAge'!R1C1" display="'T03_FertilityByAge'!R1C1"/>
+    <hyperlink ref="B10" location="'C_T03_FertilityByAge'!R1C1" display="'C_T03_FertilityByAge'!R1C1"/>
+    <hyperlink ref="A11" location="'T04_FertilityRatesByAgeGroup'!R1C1" display="'T04_FertilityRatesByAgeGroup'!R1C1"/>
+    <hyperlink ref="B11" location="'C_Chart4'!R1C1" display="'C_Chart4'!R1C1"/>
+    <hyperlink ref="A12" location="'T05_CohortFertility'!R1C1" display="'T05_CohortFertility'!R1C1"/>
+    <hyperlink ref="B12" location="'C_T05_CohortFertility'!R1C1" display="'C_T05_CohortFertility'!R1C1"/>
+    <hyperlink ref="A13" location="'T06_BirthsByUnion'!R1C1" display="'T06_BirthsByUnion'!R1C1"/>
+    <hyperlink ref="B13" location="'C_T06_BirthsByUnion'!R1C1" display="'C_T06_BirthsByUnion'!R1C1"/>
+    <hyperlink ref="A14" location="'T07_FirstUnionFormation'!R1C1" display="'T07_FirstUnionFormation'!R1C1"/>
+    <hyperlink ref="B14" location="'C_T07_FirstUnionFormation'!R1C1" display="'C_T07_FirstUnionFormation'!R1C1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8001,9 +8011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8029,10 +8037,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R11C1" display="Contents!R11C1"/>
-    <hyperlink ref="B1" location="T04_FertilityRatesByAgeGroup!R1C2" display="T04_FertilityRatesByAgeGroup!R1C2"/>
-    <hyperlink ref="C1" location="C_T03_FertilityByAge!R1C3" display="C_T03_FertilityByAge!R1C3"/>
-    <hyperlink ref="D1" location="C_T05_CohortFertility!R1C3" display="C_T05_CohortFertility!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R11C1" display="'Contents'!R11C1"/>
+    <hyperlink ref="B1" location="'T04_FertilityRatesByAgeGroup'!R1C2" display="'T04_FertilityRatesByAgeGroup'!R1C2"/>
+    <hyperlink ref="C1" location="'C_T03_FertilityByAge'!R1C3" display="'C_T03_FertilityByAge'!R1C3"/>
+    <hyperlink ref="D1" location="'C_T05_CohortFertility'!R1C3" display="'C_T05_CohortFertility'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8093,21 +8101,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>22.1242398019393</v>
+        <v>22.1412071616936</v>
       </c>
       <c r="B7" s="37">
-        <v>-2.7118484</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="C7" s="38">
-        <v>3.7118484</v>
+        <v>0.92479999999999996</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R12C1" display="Contents!R12C1"/>
-    <hyperlink ref="B1" location="C_T05_CohortFertility!R1C2" display="C_T05_CohortFertility!R1C2"/>
-    <hyperlink ref="C1" location="T04_FertilityRatesByAgeGroup!R1C3" display="T04_FertilityRatesByAgeGroup!R1C3"/>
-    <hyperlink ref="D1" location="T06_BirthsByUnion!R1C4" display="T06_BirthsByUnion!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R12C1" display="'Contents'!R12C1"/>
+    <hyperlink ref="B1" location="'C_T05_CohortFertility'!R1C2" display="'C_T05_CohortFertility'!R1C2"/>
+    <hyperlink ref="C1" location="'T04_FertilityRatesByAgeGroup'!R1C3" display="'T04_FertilityRatesByAgeGroup'!R1C3"/>
+    <hyperlink ref="D1" location="'T06_BirthsByUnion'!R1C4" display="'T06_BirthsByUnion'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8117,9 +8125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8145,10 +8151,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R12C1" display="Contents!R12C1"/>
-    <hyperlink ref="B1" location="T05_CohortFertility!R1C2" display="T05_CohortFertility!R1C2"/>
-    <hyperlink ref="C1" location="C_Chart4!R1C3" display="C_Chart4!R1C3"/>
-    <hyperlink ref="D1" location="C_T06_BirthsByUnion!R1C3" display="C_T06_BirthsByUnion!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R12C1" display="'Contents'!R12C1"/>
+    <hyperlink ref="B1" location="'T05_CohortFertility'!R1C2" display="'T05_CohortFertility'!R1C2"/>
+    <hyperlink ref="C1" location="'C_Chart4'!R1C3" display="'C_Chart4'!R1C3"/>
+    <hyperlink ref="D1" location="'C_T06_BirthsByUnion'!R1C3" display="'C_T06_BirthsByUnion'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8166,7 +8172,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -8208,7 +8214,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="39">
-        <v>644444.5</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8216,7 +8222,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="40">
-        <v>1505640.75</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8224,7 +8230,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="40">
-        <v>136222.25</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8232,7 +8238,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="40">
-        <v>7979.25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8240,7 +8246,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="40">
-        <v>25229.25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8248,15 +8254,15 @@
         <v>75</v>
       </c>
       <c r="B12" s="41">
-        <v>389.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R13C1" display="Contents!R13C1"/>
-    <hyperlink ref="B1" location="C_T06_BirthsByUnion!R1C2" display="C_T06_BirthsByUnion!R1C2"/>
-    <hyperlink ref="C1" location="T05_CohortFertility!R1C3" display="T05_CohortFertility!R1C3"/>
-    <hyperlink ref="D1" location="T07_FirstUnionFormation!R1C4" display="T07_FirstUnionFormation!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R13C1" display="'Contents'!R13C1"/>
+    <hyperlink ref="B1" location="'C_T06_BirthsByUnion'!R1C2" display="'C_T06_BirthsByUnion'!R1C2"/>
+    <hyperlink ref="C1" location="'T05_CohortFertility'!R1C3" display="'T05_CohortFertility'!R1C3"/>
+    <hyperlink ref="D1" location="'T07_FirstUnionFormation'!R1C4" display="'T07_FirstUnionFormation'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8266,9 +8272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8294,10 +8298,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R13C1" display="Contents!R13C1"/>
-    <hyperlink ref="B1" location="T06_BirthsByUnion!R1C2" display="T06_BirthsByUnion!R1C2"/>
-    <hyperlink ref="C1" location="C_T05_CohortFertility!R1C3" display="C_T05_CohortFertility!R1C3"/>
-    <hyperlink ref="D1" location="C_T07_FirstUnionFormation!R1C3" display="C_T07_FirstUnionFormation!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R13C1" display="'Contents'!R13C1"/>
+    <hyperlink ref="B1" location="'T06_BirthsByUnion'!R1C2" display="'T06_BirthsByUnion'!R1C2"/>
+    <hyperlink ref="C1" location="'C_T05_CohortFertility'!R1C3" display="'C_T05_CohortFertility'!R1C3"/>
+    <hyperlink ref="D1" location="'C_T07_FirstUnionFormation'!R1C3" display="'C_T07_FirstUnionFormation'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8365,7 +8369,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="44">
-        <v>3.0925425952029201E-2</v>
+        <v>2.9348576837088601E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8373,7 +8377,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="44">
-        <v>0.134042261781986</v>
+        <v>0.13094089030844699</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8381,7 +8385,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="44">
-        <v>0.167136423855618</v>
+        <v>0.16557479594604099</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8389,7 +8393,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="44">
-        <v>0.165293686252273</v>
+        <v>0.169604610903557</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8397,7 +8401,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="44">
-        <v>0.14706517504819799</v>
+        <v>0.13566252222233299</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8405,7 +8409,7 @@
         <v>81</v>
       </c>
       <c r="B13" s="44">
-        <v>0.10853238349703501</v>
+        <v>0.10416818266827001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8413,7 +8417,7 @@
         <v>82</v>
       </c>
       <c r="B14" s="44">
-        <v>8.0244079530757795E-2</v>
+        <v>7.2710958114521204E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -8421,7 +8425,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="44">
-        <v>3.4031279521744999E-2</v>
+        <v>4.3852521652755598E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8429,7 +8433,7 @@
         <v>84</v>
       </c>
       <c r="B16" s="44">
-        <v>4.54447532574856E-2</v>
+        <v>4.6785474931237803E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8437,7 +8441,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="44">
-        <v>3.98738430417616E-2</v>
+        <v>3.3915875207442901E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8450,10 +8454,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R14C1" display="Contents!R14C1"/>
-    <hyperlink ref="B1" location="C_T07_FirstUnionFormation!R1C2" display="C_T07_FirstUnionFormation!R1C2"/>
-    <hyperlink ref="C1" location="T06_BirthsByUnion!R1C3" display="T06_BirthsByUnion!R1C3"/>
-    <hyperlink ref="D1" location="T01_LifeExpectancy!R1C4" display="T01_LifeExpectancy!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R14C1" display="'Contents'!R14C1"/>
+    <hyperlink ref="B1" location="'C_T07_FirstUnionFormation'!R1C2" display="'C_T07_FirstUnionFormation'!R1C2"/>
+    <hyperlink ref="C1" location="'T06_BirthsByUnion'!R1C3" display="'T06_BirthsByUnion'!R1C3"/>
+    <hyperlink ref="D1" location="'T01_LifeExpectancy'!R1C4" display="'T01_LifeExpectancy'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8463,9 +8467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8491,10 +8493,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R14C1" display="Contents!R14C1"/>
-    <hyperlink ref="B1" location="T07_FirstUnionFormation!R1C2" display="T07_FirstUnionFormation!R1C2"/>
-    <hyperlink ref="C1" location="C_T06_BirthsByUnion!R1C3" display="C_T06_BirthsByUnion!R1C3"/>
-    <hyperlink ref="D1" location="C_T01_LifeExpectancy!R1C3" display="C_T01_LifeExpectancy!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R14C1" display="'Contents'!R14C1"/>
+    <hyperlink ref="B1" location="'T07_FirstUnionFormation'!R1C2" display="'T07_FirstUnionFormation'!R1C2"/>
+    <hyperlink ref="C1" location="'C_T06_BirthsByUnion'!R1C3" display="'C_T06_BirthsByUnion'!R1C3"/>
+    <hyperlink ref="D1" location="'C_T01_LifeExpectancy'!R1C3" display="'C_T01_LifeExpectancy'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="B4">
         <f>'[1]Scenario Information'!B4</f>
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8558,7 +8560,7 @@
       </c>
       <c r="B5">
         <f>'[1]Scenario Information'!B5</f>
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8598,7 +8600,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>'[1]Scenario Information'!B9</f>
-        <v>2016-02-06 20:05:12.0684</v>
+        <v>2016-05-22 12:04:31.0817</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8711,21 +8713,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="14">
-        <v>1000000000</v>
+        <v>500000</v>
       </c>
       <c r="C7" s="15">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R8C1" display="Contents!R8C1"/>
-    <hyperlink ref="B1" location="C_T01_LifeExpectancy!R1C2" display="C_T01_LifeExpectancy!R1C2"/>
-    <hyperlink ref="C1" location="T07_FirstUnionFormation!R1C3" display="T07_FirstUnionFormation!R1C3"/>
-    <hyperlink ref="D1" location="T02_TotalPopulationByYear!R1C4" display="T02_TotalPopulationByYear!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R8C1" display="'Contents'!R8C1"/>
+    <hyperlink ref="B1" location="'C_T01_LifeExpectancy'!R1C2" display="'C_T01_LifeExpectancy'!R1C2"/>
+    <hyperlink ref="C1" location="'T07_FirstUnionFormation'!R1C3" display="'T07_FirstUnionFormation'!R1C3"/>
+    <hyperlink ref="D1" location="'T02_TotalPopulationByYear'!R1C4" display="'T02_TotalPopulationByYear'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8735,9 +8737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8763,10 +8763,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R8C1" display="Contents!R8C1"/>
-    <hyperlink ref="B1" location="T01_LifeExpectancy!R1C2" display="T01_LifeExpectancy!R1C2"/>
-    <hyperlink ref="C1" location="C_T07_FirstUnionFormation!R1C3" display="C_T07_FirstUnionFormation!R1C3"/>
-    <hyperlink ref="D1" location="C_T02_TotalPopulationByYear!R1C3" display="C_T02_TotalPopulationByYear!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R8C1" display="'Contents'!R8C1"/>
+    <hyperlink ref="B1" location="'T01_LifeExpectancy'!R1C2" display="'T01_LifeExpectancy'!R1C2"/>
+    <hyperlink ref="C1" location="'C_T07_FirstUnionFormation'!R1C3" display="'C_T07_FirstUnionFormation'!R1C3"/>
+    <hyperlink ref="D1" location="'C_T02_TotalPopulationByYear'!R1C3" display="'C_T02_TotalPopulationByYear'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8830,10 +8830,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="12">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C7" s="13">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8841,10 +8841,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C8" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8852,10 +8852,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C9" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8863,10 +8863,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C10" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,10 +8874,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C11" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8885,10 +8885,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C12" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8896,10 +8896,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C13" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8907,10 +8907,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C14" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -8918,10 +8918,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C15" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -8929,10 +8929,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C16" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -8940,10 +8940,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C17" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -8951,10 +8951,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C18" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8962,10 +8962,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C19" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8973,10 +8973,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C20" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8984,10 +8984,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C21" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8995,10 +8995,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C22" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -9006,10 +9006,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C23" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9017,10 +9017,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C24" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9028,10 +9028,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C25" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9039,10 +9039,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C26" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9050,10 +9050,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C27" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9061,10 +9061,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C28" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9072,10 +9072,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C29" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9083,10 +9083,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C30" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9094,10 +9094,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C31" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9105,10 +9105,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C32" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9116,10 +9116,10 @@
         <v>26</v>
       </c>
       <c r="B33" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C33" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9127,10 +9127,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C34" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9138,10 +9138,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C35" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9149,10 +9149,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C36" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9160,10 +9160,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C37" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9171,10 +9171,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C38" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9182,10 +9182,10 @@
         <v>32</v>
       </c>
       <c r="B39" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C39" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -9193,10 +9193,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C40" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -9204,10 +9204,10 @@
         <v>34</v>
       </c>
       <c r="B41" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C41" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -9215,10 +9215,10 @@
         <v>35</v>
       </c>
       <c r="B42" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C42" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -9226,10 +9226,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C43" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -9237,10 +9237,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C44" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -9248,10 +9248,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C45" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -9259,10 +9259,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C46" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -9270,10 +9270,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C47" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -9281,10 +9281,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C48" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -9292,10 +9292,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C49" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -9303,10 +9303,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C50" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -9314,10 +9314,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C51" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -9325,10 +9325,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C52" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -9336,10 +9336,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C53" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -9347,10 +9347,10 @@
         <v>47</v>
       </c>
       <c r="B54" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C54" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -9358,10 +9358,10 @@
         <v>48</v>
       </c>
       <c r="B55" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C55" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -9369,10 +9369,10 @@
         <v>49</v>
       </c>
       <c r="B56" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C56" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -9380,10 +9380,10 @@
         <v>50</v>
       </c>
       <c r="B57" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C57" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -9391,10 +9391,10 @@
         <v>51</v>
       </c>
       <c r="B58" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C58" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -9402,10 +9402,10 @@
         <v>52</v>
       </c>
       <c r="B59" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C59" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -9413,10 +9413,10 @@
         <v>53</v>
       </c>
       <c r="B60" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C60" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -9424,10 +9424,10 @@
         <v>54</v>
       </c>
       <c r="B61" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C61" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -9435,10 +9435,10 @@
         <v>55</v>
       </c>
       <c r="B62" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C62" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -9446,10 +9446,10 @@
         <v>56</v>
       </c>
       <c r="B63" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C63" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -9457,10 +9457,10 @@
         <v>57</v>
       </c>
       <c r="B64" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C64" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -9468,10 +9468,10 @@
         <v>58</v>
       </c>
       <c r="B65" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C65" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -9479,10 +9479,10 @@
         <v>59</v>
       </c>
       <c r="B66" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C66" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -9490,10 +9490,10 @@
         <v>60</v>
       </c>
       <c r="B67" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C67" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -9501,10 +9501,10 @@
         <v>61</v>
       </c>
       <c r="B68" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C68" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -9512,10 +9512,10 @@
         <v>62</v>
       </c>
       <c r="B69" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C69" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -9523,10 +9523,10 @@
         <v>63</v>
       </c>
       <c r="B70" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C70" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -9534,10 +9534,10 @@
         <v>64</v>
       </c>
       <c r="B71" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C71" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -9545,10 +9545,10 @@
         <v>65</v>
       </c>
       <c r="B72" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C72" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -9556,10 +9556,10 @@
         <v>66</v>
       </c>
       <c r="B73" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C73" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -9567,10 +9567,10 @@
         <v>67</v>
       </c>
       <c r="B74" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C74" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -9578,10 +9578,10 @@
         <v>68</v>
       </c>
       <c r="B75" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C75" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -9589,10 +9589,10 @@
         <v>69</v>
       </c>
       <c r="B76" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C76" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -9600,10 +9600,10 @@
         <v>70</v>
       </c>
       <c r="B77" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C77" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -9611,10 +9611,10 @@
         <v>71</v>
       </c>
       <c r="B78" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C78" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -9622,10 +9622,10 @@
         <v>72</v>
       </c>
       <c r="B79" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C79" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -9633,10 +9633,10 @@
         <v>73</v>
       </c>
       <c r="B80" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C80" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -9644,10 +9644,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C81" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -9655,10 +9655,10 @@
         <v>75</v>
       </c>
       <c r="B82" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C82" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -9666,10 +9666,10 @@
         <v>76</v>
       </c>
       <c r="B83" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C83" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -9677,10 +9677,10 @@
         <v>77</v>
       </c>
       <c r="B84" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C84" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -9688,10 +9688,10 @@
         <v>78</v>
       </c>
       <c r="B85" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C85" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -9699,10 +9699,10 @@
         <v>79</v>
       </c>
       <c r="B86" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C86" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -9710,10 +9710,10 @@
         <v>80</v>
       </c>
       <c r="B87" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C87" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -9721,10 +9721,10 @@
         <v>81</v>
       </c>
       <c r="B88" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C88" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -9732,10 +9732,10 @@
         <v>82</v>
       </c>
       <c r="B89" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C89" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -9743,10 +9743,10 @@
         <v>83</v>
       </c>
       <c r="B90" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C90" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -9754,10 +9754,10 @@
         <v>84</v>
       </c>
       <c r="B91" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C91" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -9765,10 +9765,10 @@
         <v>85</v>
       </c>
       <c r="B92" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C92" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -9776,10 +9776,10 @@
         <v>86</v>
       </c>
       <c r="B93" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C93" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -9787,10 +9787,10 @@
         <v>87</v>
       </c>
       <c r="B94" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C94" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -9798,10 +9798,10 @@
         <v>88</v>
       </c>
       <c r="B95" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C95" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -9809,10 +9809,10 @@
         <v>89</v>
       </c>
       <c r="B96" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C96" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -9820,10 +9820,10 @@
         <v>90</v>
       </c>
       <c r="B97" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C97" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -9831,10 +9831,10 @@
         <v>91</v>
       </c>
       <c r="B98" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C98" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -9842,10 +9842,10 @@
         <v>92</v>
       </c>
       <c r="B99" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C99" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -9853,10 +9853,10 @@
         <v>93</v>
       </c>
       <c r="B100" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C100" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -9864,10 +9864,10 @@
         <v>94</v>
       </c>
       <c r="B101" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C101" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -9875,10 +9875,10 @@
         <v>95</v>
       </c>
       <c r="B102" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C102" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -9886,10 +9886,10 @@
         <v>96</v>
       </c>
       <c r="B103" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C103" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -9897,10 +9897,10 @@
         <v>97</v>
       </c>
       <c r="B104" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C104" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -9908,10 +9908,10 @@
         <v>98</v>
       </c>
       <c r="B105" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C105" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -9919,10 +9919,10 @@
         <v>99</v>
       </c>
       <c r="B106" s="21">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C106" s="22">
-        <v>10000000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -9930,7 +9930,7 @@
         <v>100</v>
       </c>
       <c r="B107" s="23">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="C107" s="24">
         <v>0</v>
@@ -9938,10 +9938,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R9C1" display="Contents!R9C1"/>
-    <hyperlink ref="B1" location="C_T02_TotalPopulationByYear!R1C2" display="C_T02_TotalPopulationByYear!R1C2"/>
-    <hyperlink ref="C1" location="T01_LifeExpectancy!R1C3" display="T01_LifeExpectancy!R1C3"/>
-    <hyperlink ref="D1" location="T03_FertilityByAge!R1C4" display="T03_FertilityByAge!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R9C1" display="'Contents'!R9C1"/>
+    <hyperlink ref="B1" location="'C_T02_TotalPopulationByYear'!R1C2" display="'C_T02_TotalPopulationByYear'!R1C2"/>
+    <hyperlink ref="C1" location="'T01_LifeExpectancy'!R1C3" display="'T01_LifeExpectancy'!R1C3"/>
+    <hyperlink ref="D1" location="'T03_FertilityByAge'!R1C4" display="'T03_FertilityByAge'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9951,9 +9951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9979,10 +9977,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R9C1" display="Contents!R9C1"/>
-    <hyperlink ref="B1" location="T02_TotalPopulationByYear!R1C2" display="T02_TotalPopulationByYear!R1C2"/>
-    <hyperlink ref="C1" location="C_T01_LifeExpectancy!R1C3" display="C_T01_LifeExpectancy!R1C3"/>
-    <hyperlink ref="D1" location="C_T03_FertilityByAge!R1C3" display="C_T03_FertilityByAge!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R9C1" display="'Contents'!R9C1"/>
+    <hyperlink ref="B1" location="'T02_TotalPopulationByYear'!R1C2" display="'T02_TotalPopulationByYear'!R1C2"/>
+    <hyperlink ref="C1" location="'C_T01_LifeExpectancy'!R1C3" display="'C_T01_LifeExpectancy'!R1C3"/>
+    <hyperlink ref="D1" location="'C_T03_FertilityByAge'!R1C3" display="'C_T03_FertilityByAge'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10057,10 +10055,10 @@
         <v>41</v>
       </c>
       <c r="B8" s="27">
-        <v>2.20739E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="C8" s="28">
-        <v>2.23078123414303E-2</v>
+        <v>2.30210474657454E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10068,10 +10066,10 @@
         <v>42</v>
       </c>
       <c r="B9" s="27">
-        <v>2.7486900000000002E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="C9" s="28">
-        <v>2.8497950703663701E-2</v>
+        <v>3.3087353445977102E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10079,10 +10077,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="27">
-        <v>6.1602400000000002E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="C10" s="28">
-        <v>6.6390340743687298E-2</v>
+        <v>6.3682287442221597E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10090,10 +10088,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="27">
-        <v>0.10803699999999999</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="C11" s="28">
-        <v>0.12929350511798901</v>
+        <v>0.11848403435810401</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10101,10 +10099,10 @@
         <v>45</v>
       </c>
       <c r="B12" s="27">
-        <v>0.1088493</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="C12" s="28">
-        <v>0.149938327468846</v>
+        <v>0.136356555328177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10112,10 +10110,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="27">
-        <v>0.11343</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C13" s="28">
-        <v>0.184661568756883</v>
+        <v>0.18482607695921</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10123,10 +10121,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="27">
-        <v>9.8502300000000001E-2</v>
+        <v>0.1052</v>
       </c>
       <c r="C14" s="28">
-        <v>0.19393603637328</v>
+        <v>0.203939894101696</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10134,10 +10132,10 @@
         <v>48</v>
       </c>
       <c r="B15" s="27">
-        <v>8.1486799999999998E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="C15" s="28">
-        <v>0.19506988928029101</v>
+        <v>0.19312930381958501</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10145,10 +10143,10 @@
         <v>49</v>
       </c>
       <c r="B16" s="27">
-        <v>6.6687099999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C16" s="28">
-        <v>0.19380139640884</v>
+        <v>0.20764392016240199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10156,10 +10154,10 @@
         <v>50</v>
       </c>
       <c r="B17" s="27">
-        <v>5.5124100000000002E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="C17" s="28">
-        <v>0.19450605100767299</v>
+        <v>0.19921970581815199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10167,10 +10165,10 @@
         <v>51</v>
       </c>
       <c r="B18" s="27">
-        <v>3.8290299999999999E-2</v>
+        <v>3.56E-2</v>
       </c>
       <c r="C18" s="28">
-        <v>0.16148574094135601</v>
+        <v>0.149390155174876</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10178,10 +10176,10 @@
         <v>52</v>
       </c>
       <c r="B19" s="27">
-        <v>3.27415E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="C19" s="28">
-        <v>0.16240371066478301</v>
+        <v>0.163455004178758</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10189,10 +10187,10 @@
         <v>53</v>
       </c>
       <c r="B20" s="27">
-        <v>2.4604600000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" s="28">
-        <v>0.14286622135270699</v>
+        <v>0.144180300761105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10200,10 +10198,10 @@
         <v>54</v>
       </c>
       <c r="B21" s="27">
-        <v>1.8111200000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="C21" s="28">
-        <v>0.119301427633693</v>
+        <v>0.113968858667475</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10211,10 +10209,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="27">
-        <v>1.57711E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="C22" s="28">
-        <v>0.116909733614924</v>
+        <v>0.120495572341048</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10222,10 +10220,10 @@
         <v>56</v>
       </c>
       <c r="B23" s="27">
-        <v>1.28477E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="C23" s="28">
-        <v>0.10653682539171699</v>
+        <v>7.9938506694383404E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10233,10 +10231,10 @@
         <v>57</v>
       </c>
       <c r="B24" s="27">
-        <v>1.10644E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="C24" s="28">
-        <v>0.10180770846857699</v>
+        <v>9.0301492850627496E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10244,10 +10242,10 @@
         <v>58</v>
       </c>
       <c r="B25" s="27">
-        <v>7.4710999999999996E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="C25" s="28">
-        <v>7.5541696802586406E-2</v>
+        <v>7.9506213442761903E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10255,10 +10253,10 @@
         <v>59</v>
       </c>
       <c r="B26" s="27">
-        <v>4.5541999999999996E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C26" s="28">
-        <v>4.8711394668694202E-2</v>
+        <v>5.1358705205120501E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10266,10 +10264,10 @@
         <v>60</v>
       </c>
       <c r="B27" s="27">
-        <v>4.1450999999999997E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="C27" s="28">
-        <v>4.6489819315356999E-2</v>
+        <v>4.5224645199996097E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10277,10 +10275,10 @@
         <v>61</v>
       </c>
       <c r="B28" s="27">
-        <v>3.8974000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C28" s="28">
-        <v>4.5765326912740198E-2</v>
+        <v>6.83776197957503E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10288,10 +10286,10 @@
         <v>62</v>
       </c>
       <c r="B29" s="27">
-        <v>3.8197000000000001E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="C29" s="28">
-        <v>4.6982887067958098E-2</v>
+        <v>4.1293962609391097E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10299,10 +10297,10 @@
         <v>63</v>
       </c>
       <c r="B30" s="27">
-        <v>2.9827999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C30" s="28">
-        <v>3.8379382344289503E-2</v>
+        <v>1.7352591606666301E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10310,10 +10308,10 @@
         <v>64</v>
       </c>
       <c r="B31" s="27">
-        <v>2.2035000000000002E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="C31" s="28">
-        <v>2.9259183702415498E-2</v>
+        <v>2.79551500278848E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10321,10 +10319,10 @@
         <v>65</v>
       </c>
       <c r="B32" s="27">
-        <v>2.1776999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C32" s="28">
-        <v>2.9780968264758002E-2</v>
+        <v>3.13578991898983E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10340,10 +10338,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R10C1" display="Contents!R10C1"/>
-    <hyperlink ref="B1" location="C_T03_FertilityByAge!R1C2" display="C_T03_FertilityByAge!R1C2"/>
-    <hyperlink ref="C1" location="T02_TotalPopulationByYear!R1C3" display="T02_TotalPopulationByYear!R1C3"/>
-    <hyperlink ref="D1" location="T04_FertilityRatesByAgeGroup!R1C4" display="T04_FertilityRatesByAgeGroup!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R10C1" display="'Contents'!R10C1"/>
+    <hyperlink ref="B1" location="'C_T03_FertilityByAge'!R1C2" display="'C_T03_FertilityByAge'!R1C2"/>
+    <hyperlink ref="C1" location="'T02_TotalPopulationByYear'!R1C3" display="'T02_TotalPopulationByYear'!R1C3"/>
+    <hyperlink ref="D1" location="'T04_FertilityRatesByAgeGroup'!R1C4" display="'T04_FertilityRatesByAgeGroup'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10353,9 +10351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10381,10 +10377,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R10C1" display="Contents!R10C1"/>
-    <hyperlink ref="B1" location="T03_FertilityByAge!R1C2" display="T03_FertilityByAge!R1C2"/>
-    <hyperlink ref="C1" location="C_T02_TotalPopulationByYear!R1C3" display="C_T02_TotalPopulationByYear!R1C3"/>
-    <hyperlink ref="D1" location="C_Chart4!R1C3" display="C_Chart4!R1C3"/>
+    <hyperlink ref="A1" location="'Contents'!R10C1" display="'Contents'!R10C1"/>
+    <hyperlink ref="B1" location="'T03_FertilityByAge'!R1C2" display="'T03_FertilityByAge'!R1C2"/>
+    <hyperlink ref="C1" location="'C_T02_TotalPopulationByYear'!R1C3" display="'C_T02_TotalPopulationByYear'!R1C3"/>
+    <hyperlink ref="D1" location="'C_Chart4'!R1C3" display="'C_Chart4'!R1C3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10478,181 +10474,165 @@
         <v>76</v>
       </c>
       <c r="B8" s="27">
-        <v>1.8576713252457099E-2</v>
+        <v>2.04164012779747E-2</v>
       </c>
       <c r="C8" s="34">
-        <v>0.28724433431876301</v>
+        <v>0.31812804906745601</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34">
-        <v>1.6133245829036202E-2</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.24682794273109401</v>
-      </c>
-      <c r="G8" s="28">
         <v>0</v>
       </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="27">
-        <v>4.9192097149776799E-2</v>
+        <v>4.4874883123611001E-2</v>
       </c>
       <c r="C9" s="34">
-        <v>0.75836853876680299</v>
+        <v>0.72226598417068399</v>
       </c>
       <c r="D9" s="34">
-        <v>0.19250394198139101</v>
+        <v>0.204327220279993</v>
       </c>
       <c r="E9" s="34">
-        <v>4.8399107299945898E-2</v>
+        <v>7.8325022168220806E-2</v>
       </c>
       <c r="F9" s="34">
-        <v>0.59868391250275199</v>
-      </c>
-      <c r="G9" s="28">
-        <v>4.0114479434849998E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="27">
-        <v>5.4892247965166202E-2</v>
+        <v>5.5922613200318501E-2</v>
       </c>
       <c r="C10" s="34">
-        <v>0.84558006377227801</v>
+        <v>0.84814305538509205</v>
       </c>
       <c r="D10" s="34">
-        <v>0.21475586635399699</v>
+        <v>0.24281503707004601</v>
       </c>
       <c r="E10" s="34">
-        <v>5.4768835827267902E-2</v>
+        <v>0.11619211534049299</v>
       </c>
       <c r="F10" s="34">
-        <v>0.68380208164498502</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5.5987883646520901E-2</v>
-      </c>
+        <v>1.00625841589179</v>
+      </c>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="27">
-        <v>5.2911326781178401E-2</v>
+        <v>5.7717158463377598E-2</v>
       </c>
       <c r="C11" s="34">
-        <v>0.817475128206544</v>
+        <v>0.81779783736999201</v>
       </c>
       <c r="D11" s="34">
-        <v>0.206505857905075</v>
+        <v>0.22185091015067701</v>
       </c>
       <c r="E11" s="34">
-        <v>5.3233333249559298E-2</v>
+        <v>6.6538594735504594E-2</v>
       </c>
       <c r="F11" s="34">
-        <v>0.65655591287120196</v>
-      </c>
-      <c r="G11" s="28">
-        <v>5.1960917564962197E-2</v>
-      </c>
+        <v>0.59868517819905098</v>
+      </c>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="27">
-        <v>4.36845063914219E-2</v>
+        <v>3.7333484797618798E-2</v>
       </c>
       <c r="C12" s="34">
-        <v>0.67203777859365699</v>
+        <v>0.71199607206952797</v>
       </c>
       <c r="D12" s="34">
-        <v>0.17022586678992199</v>
+        <v>0.15355747010079701</v>
       </c>
       <c r="E12" s="34">
-        <v>4.3019966413032802E-2</v>
+        <v>2.0256073754186501E-2</v>
       </c>
       <c r="F12" s="34">
-        <v>0.54705749322519004</v>
-      </c>
-      <c r="G12" s="28">
-        <v>4.8157852921002303E-2</v>
-      </c>
+        <v>0.55013044313164305</v>
+      </c>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="27">
-        <v>3.3171944785934701E-2</v>
+        <v>3.5256923364645303E-2</v>
       </c>
       <c r="C13" s="34">
-        <v>0.51072705050018097</v>
+        <v>0.53949075069612196</v>
       </c>
       <c r="D13" s="34">
-        <v>0.12786495541114301</v>
+        <v>0.11211267893242</v>
       </c>
       <c r="E13" s="34">
-        <v>3.2534400437051497E-2</v>
+        <v>0.11050392946979599</v>
       </c>
       <c r="F13" s="34">
-        <v>0.41075410402761398</v>
-      </c>
-      <c r="G13" s="28">
-        <v>3.5136000349239298E-2</v>
-      </c>
+        <v>0.16120490209962099</v>
+      </c>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="27">
-        <v>3.1541428098090199E-2</v>
+        <v>2.99398062824499E-2</v>
       </c>
       <c r="C14" s="34">
-        <v>0.48707983197113502</v>
+        <v>0.426602283339446</v>
       </c>
       <c r="D14" s="34">
-        <v>0.12386474966913</v>
+        <v>0.10370045129233001</v>
       </c>
       <c r="E14" s="34">
-        <v>3.1196060153592001E-2</v>
+        <v>1.7967735406089001E-2</v>
       </c>
       <c r="F14" s="34">
-        <v>0.39322900997444699</v>
-      </c>
-      <c r="G14" s="28">
-        <v>3.05522061961572E-2</v>
-      </c>
+        <v>0.46271370997522099</v>
+      </c>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="27">
-        <v>1.6645364197534401E-2</v>
+        <v>1.5946371510092899E-2</v>
       </c>
       <c r="C15" s="34">
-        <v>0.25383641749936098</v>
+        <v>0.27119560025775802</v>
       </c>
       <c r="D15" s="34">
-        <v>6.4663748974689406E-2</v>
+        <v>6.0190857075760697E-2</v>
       </c>
       <c r="E15" s="34">
-        <v>1.6953306092179699E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="34">
-        <v>0.20626443281818299</v>
+        <v>0.32219385990935601</v>
       </c>
       <c r="G15" s="28">
-        <v>1.75987777659166E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -10660,22 +10640,22 @@
         <v>84</v>
       </c>
       <c r="B16" s="27">
-        <v>1.6836281390172399E-2</v>
+        <v>1.4035642479371301E-2</v>
       </c>
       <c r="C16" s="34">
-        <v>0.26074689142975799</v>
+        <v>0.29825296765703202</v>
       </c>
       <c r="D16" s="34">
-        <v>6.5418786120852307E-2</v>
+        <v>6.1962773249519598E-2</v>
       </c>
       <c r="E16" s="34">
-        <v>1.76664856851536E-2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="34">
-        <v>0.21088069106985399</v>
+        <v>0.27777948634650301</v>
       </c>
       <c r="G16" s="28">
-        <v>1.55768269926405E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -10683,22 +10663,22 @@
         <v>85</v>
       </c>
       <c r="B17" s="27">
-        <v>9.9539539800955704E-3</v>
+        <v>1.6065414571946601E-2</v>
       </c>
       <c r="C17" s="34">
-        <v>0.154227994167667</v>
+        <v>0.15375513261373899</v>
       </c>
       <c r="D17" s="34">
-        <v>3.9226949500614797E-2</v>
+        <v>2.5127658026899299E-2</v>
       </c>
       <c r="E17" s="34">
-        <v>1.03563361094195E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="34">
-        <v>0.123104046157568</v>
+        <v>0.20482123700892699</v>
       </c>
       <c r="G17" s="28">
-        <v>9.4795345340463692E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -10726,10 +10706,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!R11C1" display="Contents!R11C1"/>
-    <hyperlink ref="B1" location="C_Chart4!R1C2" display="C_Chart4!R1C2"/>
-    <hyperlink ref="C1" location="T03_FertilityByAge!R1C3" display="T03_FertilityByAge!R1C3"/>
-    <hyperlink ref="D1" location="T05_CohortFertility!R1C4" display="T05_CohortFertility!R1C4"/>
+    <hyperlink ref="A1" location="'Contents'!R11C1" display="'Contents'!R11C1"/>
+    <hyperlink ref="B1" location="'C_Chart4'!R1C2" display="'C_Chart4'!R1C2"/>
+    <hyperlink ref="C1" location="'T03_FertilityByAge'!R1C3" display="'T03_FertilityByAge'!R1C3"/>
+    <hyperlink ref="D1" location="'T05_CohortFertility'!R1C4" display="'T05_CohortFertility'!R1C4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
